--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dkk1-Kremen1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dkk1-Kremen1.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03798333333333333</v>
+        <v>0.022418</v>
       </c>
       <c r="H2">
-        <v>0.11395</v>
+        <v>0.06725399999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.904828666666667</v>
+        <v>3.112844666666666</v>
       </c>
       <c r="N2">
-        <v>11.714486</v>
+        <v>9.338533999999999</v>
       </c>
       <c r="O2">
-        <v>0.0982284141177371</v>
+        <v>0.0962303687181678</v>
       </c>
       <c r="P2">
-        <v>0.09822841411773711</v>
+        <v>0.09623036871816783</v>
       </c>
       <c r="Q2">
-        <v>0.1483184088555556</v>
+        <v>0.06978375173733331</v>
       </c>
       <c r="R2">
-        <v>1.3348656797</v>
+        <v>0.6280537656359999</v>
       </c>
       <c r="S2">
-        <v>0.0982284141177371</v>
+        <v>0.0962303687181678</v>
       </c>
       <c r="T2">
-        <v>0.09822841411773711</v>
+        <v>0.09623036871816783</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03798333333333333</v>
+        <v>0.022418</v>
       </c>
       <c r="H3">
-        <v>0.11395</v>
+        <v>0.06725399999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>53.978117</v>
       </c>
       <c r="O3">
-        <v>0.4526177956055148</v>
+        <v>0.5562258596073433</v>
       </c>
       <c r="P3">
-        <v>0.4526177956055148</v>
+        <v>0.5562258596073434</v>
       </c>
       <c r="Q3">
-        <v>0.6834229369055556</v>
+        <v>0.4033604756353333</v>
       </c>
       <c r="R3">
-        <v>6.15080643215</v>
+        <v>3.630244280717999</v>
       </c>
       <c r="S3">
-        <v>0.4526177956055148</v>
+        <v>0.5562258596073433</v>
       </c>
       <c r="T3">
-        <v>0.4526177956055148</v>
+        <v>0.5562258596073434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03798333333333333</v>
+        <v>0.022418</v>
       </c>
       <c r="H4">
-        <v>0.11395</v>
+        <v>0.06725399999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.85500266666667</v>
+        <v>11.24229066666667</v>
       </c>
       <c r="N4">
-        <v>53.565008</v>
+        <v>33.726872</v>
       </c>
       <c r="O4">
-        <v>0.449153790276748</v>
+        <v>0.3475437716744887</v>
       </c>
       <c r="P4">
-        <v>0.4491537902767481</v>
+        <v>0.3475437716744888</v>
       </c>
       <c r="Q4">
-        <v>0.6781925179555556</v>
+        <v>0.2520296721653333</v>
       </c>
       <c r="R4">
-        <v>6.1037326616</v>
+        <v>2.268267049488</v>
       </c>
       <c r="S4">
-        <v>0.449153790276748</v>
+        <v>0.3475437716744887</v>
       </c>
       <c r="T4">
-        <v>0.4491537902767481</v>
+        <v>0.3475437716744888</v>
       </c>
     </row>
   </sheetData>
